--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Bear/Binance_BTC-USDT_1w/equity_curve.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Bear/Binance_BTC-USDT_1w/equity_curve.xlsx
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -408,7 +408,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -424,7 +424,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>1743.0767071006</v>
+        <v>1089.4233935803</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -744,74 +744,74 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>1552.1548804806</v>
+        <v>970.0966492703003</v>
       </c>
       <c r="B45">
-        <v>0.1095315116324258</v>
+        <v>0.1095320194271231</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>1503.939138080601</v>
+        <v>939.9616580703004</v>
       </c>
       <c r="B46">
-        <v>0.1371927971074643</v>
+        <v>0.1371934331415503</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>1523.6927032406</v>
+        <v>952.3076986503002</v>
       </c>
       <c r="B47">
-        <v>0.1258602119839688</v>
+        <v>0.1258607954795065</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>1553.963762800601</v>
+        <v>971.2272064303003</v>
       </c>
       <c r="B48">
-        <v>0.1084937590695975</v>
+        <v>0.1084942620532113</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1540.0217468806</v>
+        <v>962.5134024703002</v>
       </c>
       <c r="B49">
-        <v>0.1164922687526228</v>
+        <v>0.1164928088178102</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1564.368796040601</v>
+        <v>977.7303850503004</v>
       </c>
       <c r="B50">
-        <v>0.1025244100457627</v>
+        <v>0.1025248853551143</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1648.0874178806</v>
+        <v>1030.0547879703</v>
       </c>
       <c r="B51">
-        <v>0.05449518591640357</v>
+        <v>0.05449543855937389</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1670.112381680601</v>
+        <v>1043.820459870301</v>
       </c>
       <c r="B52">
-        <v>0.04185950344168554</v>
+        <v>0.0418596975048694</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1670.112381680601</v>
+        <v>1043.820459870301</v>
       </c>
       <c r="B53">
-        <v>0.04185950344168554</v>
+        <v>0.0418596975048694</v>
       </c>
       <c r="C53" s="2">
         <v>63</v>
